--- a/data/source/recent/lasd_bystation_ytd.xlsx
+++ b/data/source/recent/lasd_bystation_ytd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_losangeles/data/source/recent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6ABAC1-C193-944B-A251-B14CA73B7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA347D4-C84C-7C4A-9A65-D97E32E4DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14640" yWindow="500" windowWidth="19660" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="64">
   <si>
     <t>Unincorporated</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>ytd22</t>
-  </si>
-  <si>
-    <t>total21</t>
   </si>
   <si>
     <t>category</t>
@@ -601,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B4596-BC2F-4C47-B35C-C395A13D0B9D}">
-  <dimension ref="A1:F449"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -614,29 +611,26 @@
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -645,18 +639,15 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -665,18 +656,15 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>53</v>
-      </c>
-      <c r="F3">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -688,15 +676,12 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -705,18 +690,15 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="E5">
-        <v>243</v>
-      </c>
-      <c r="F5">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -725,18 +707,15 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -745,18 +724,15 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -765,16 +741,13 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8">
-        <v>51</v>
-      </c>
-      <c r="F8">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -788,13 +761,10 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -808,13 +778,10 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -830,11 +797,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -845,16 +809,13 @@
         <v>47</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>29</v>
-      </c>
-      <c r="F12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -870,11 +831,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -885,16 +843,13 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -908,13 +863,10 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -928,13 +880,10 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -945,16 +894,13 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -970,11 +916,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -988,13 +931,10 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1010,11 +950,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1028,13 +965,10 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1050,11 +984,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1065,16 +996,13 @@
         <v>45</v>
       </c>
       <c r="D23">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E23">
-        <v>195</v>
-      </c>
-      <c r="F23">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1085,16 +1013,13 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="E24">
-        <v>202</v>
-      </c>
-      <c r="F24">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1108,13 +1033,10 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1125,16 +1047,13 @@
         <v>47</v>
       </c>
       <c r="D26">
-        <v>1365</v>
+        <v>1140</v>
       </c>
       <c r="E26">
-        <v>1140</v>
-      </c>
-      <c r="F26">
         <v>1111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1145,16 +1064,13 @@
         <v>44</v>
       </c>
       <c r="D27">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1165,16 +1081,13 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>14</v>
       </c>
-      <c r="F28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1185,16 +1098,13 @@
         <v>48</v>
       </c>
       <c r="D29">
-        <v>766</v>
+        <v>612</v>
       </c>
       <c r="E29">
-        <v>612</v>
-      </c>
-      <c r="F29">
         <v>751</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1205,16 +1115,13 @@
         <v>45</v>
       </c>
       <c r="D30">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>45</v>
-      </c>
-      <c r="F30">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1225,16 +1132,13 @@
         <v>46</v>
       </c>
       <c r="D31">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E31">
-        <v>88</v>
-      </c>
-      <c r="F31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1245,16 +1149,13 @@
         <v>43</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1265,16 +1166,13 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="E33">
-        <v>332</v>
-      </c>
-      <c r="F33">
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1285,16 +1183,13 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1308,13 +1203,10 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1325,18 +1217,15 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="E36">
-        <v>240</v>
-      </c>
-      <c r="F36">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1345,18 +1234,15 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="E37">
-        <v>270</v>
-      </c>
-      <c r="F37">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1365,18 +1251,15 @@
         <v>46</v>
       </c>
       <c r="D38">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E38">
-        <v>127</v>
-      </c>
-      <c r="F38">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1385,18 +1268,15 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1405,18 +1285,15 @@
         <v>47</v>
       </c>
       <c r="D40">
-        <v>677</v>
+        <v>550</v>
       </c>
       <c r="E40">
-        <v>550</v>
-      </c>
-      <c r="F40">
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1425,18 +1302,15 @@
         <v>44</v>
       </c>
       <c r="D41">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E41">
-        <v>151</v>
-      </c>
-      <c r="F41">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1445,18 +1319,15 @@
         <v>49</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1465,18 +1336,15 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>963</v>
+        <v>818</v>
       </c>
       <c r="E43">
-        <v>818</v>
-      </c>
-      <c r="F43">
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -1485,18 +1353,15 @@
         <v>45</v>
       </c>
       <c r="D44">
-        <v>750</v>
+        <v>638</v>
       </c>
       <c r="E44">
-        <v>638</v>
-      </c>
-      <c r="F44">
         <v>732</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -1505,18 +1370,15 @@
         <v>46</v>
       </c>
       <c r="D45">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="E45">
-        <v>164</v>
-      </c>
-      <c r="F45">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -1525,18 +1387,15 @@
         <v>43</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>33</v>
-      </c>
-      <c r="F46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1545,18 +1404,15 @@
         <v>47</v>
       </c>
       <c r="D47">
-        <v>875</v>
+        <v>735</v>
       </c>
       <c r="E47">
-        <v>735</v>
-      </c>
-      <c r="F47">
         <v>977</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1565,18 +1421,15 @@
         <v>44</v>
       </c>
       <c r="D48">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="E48">
-        <v>240</v>
-      </c>
-      <c r="F48">
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1585,18 +1438,15 @@
         <v>49</v>
       </c>
       <c r="D49">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>40</v>
-      </c>
-      <c r="F49">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -1605,16 +1455,13 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>1089</v>
+        <v>898</v>
       </c>
       <c r="E50">
-        <v>898</v>
-      </c>
-      <c r="F50">
         <v>996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1625,16 +1472,13 @@
         <v>45</v>
       </c>
       <c r="D51">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E51">
-        <v>52</v>
-      </c>
-      <c r="F51">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1645,16 +1489,13 @@
         <v>46</v>
       </c>
       <c r="D52">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E52">
         <v>207</v>
       </c>
-      <c r="F52">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1670,11 +1511,8 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1685,16 +1523,13 @@
         <v>47</v>
       </c>
       <c r="D54">
-        <v>1235</v>
+        <v>984</v>
       </c>
       <c r="E54">
-        <v>984</v>
-      </c>
-      <c r="F54">
         <v>1085</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1705,16 +1540,13 @@
         <v>44</v>
       </c>
       <c r="D55">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E55">
-        <v>46</v>
-      </c>
-      <c r="F55">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1725,16 +1557,13 @@
         <v>49</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>7</v>
-      </c>
-      <c r="F56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1745,16 +1574,13 @@
         <v>48</v>
       </c>
       <c r="D57">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="E57">
-        <v>217</v>
-      </c>
-      <c r="F57">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1765,16 +1591,13 @@
         <v>45</v>
       </c>
       <c r="D58">
-        <v>648</v>
+        <v>548</v>
       </c>
       <c r="E58">
-        <v>548</v>
-      </c>
-      <c r="F58">
         <v>588</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1785,16 +1608,13 @@
         <v>46</v>
       </c>
       <c r="D59">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E59">
-        <v>151</v>
-      </c>
-      <c r="F59">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1805,16 +1625,13 @@
         <v>43</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>32</v>
-      </c>
-      <c r="F60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1825,16 +1642,13 @@
         <v>47</v>
       </c>
       <c r="D61">
-        <v>795</v>
+        <v>656</v>
       </c>
       <c r="E61">
-        <v>656</v>
-      </c>
-      <c r="F61">
         <v>950</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1845,16 +1659,13 @@
         <v>44</v>
       </c>
       <c r="D62">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="E62">
-        <v>186</v>
-      </c>
-      <c r="F62">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1865,16 +1676,13 @@
         <v>49</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>30</v>
-      </c>
-      <c r="F63">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1885,16 +1693,13 @@
         <v>48</v>
       </c>
       <c r="D64">
-        <v>1092</v>
+        <v>908</v>
       </c>
       <c r="E64">
-        <v>908</v>
-      </c>
-      <c r="F64">
         <v>867</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1905,16 +1710,13 @@
         <v>45</v>
       </c>
       <c r="D65">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E65">
-        <v>137</v>
-      </c>
-      <c r="F65">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1925,16 +1727,13 @@
         <v>46</v>
       </c>
       <c r="D66">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E66">
-        <v>44</v>
-      </c>
-      <c r="F66">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1945,16 +1744,13 @@
         <v>43</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1965,16 +1761,13 @@
         <v>47</v>
       </c>
       <c r="D68">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E68">
-        <v>120</v>
-      </c>
-      <c r="F68">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1985,16 +1778,13 @@
         <v>44</v>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E69">
-        <v>53</v>
-      </c>
-      <c r="F69">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2005,16 +1795,13 @@
         <v>49</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2025,18 +1812,15 @@
         <v>48</v>
       </c>
       <c r="D71">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="E71">
-        <v>279</v>
-      </c>
-      <c r="F71">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2045,18 +1829,15 @@
         <v>45</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>8</v>
-      </c>
-      <c r="F72">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2065,18 +1846,15 @@
         <v>46</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E73">
-        <v>39</v>
-      </c>
-      <c r="F73">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2090,13 +1868,10 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2105,18 +1880,15 @@
         <v>47</v>
       </c>
       <c r="D75">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E75">
-        <v>150</v>
-      </c>
-      <c r="F75">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2128,15 +1900,12 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2148,15 +1917,12 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2165,18 +1931,15 @@
         <v>48</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>9</v>
-      </c>
-      <c r="F78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -2185,18 +1948,15 @@
         <v>45</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>22</v>
-      </c>
-      <c r="F79">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2205,18 +1965,15 @@
         <v>46</v>
       </c>
       <c r="D80">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E80">
-        <v>33</v>
-      </c>
-      <c r="F80">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -2228,15 +1985,12 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -2245,18 +1999,15 @@
         <v>47</v>
       </c>
       <c r="D82">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E82">
-        <v>195</v>
-      </c>
-      <c r="F82">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -2265,18 +2016,15 @@
         <v>44</v>
       </c>
       <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>2</v>
       </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -2290,13 +2038,10 @@
       <c r="E84">
         <v>3</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -2305,18 +2050,15 @@
         <v>48</v>
       </c>
       <c r="D85">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>26</v>
-      </c>
-      <c r="F85">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2325,18 +2067,15 @@
         <v>45</v>
       </c>
       <c r="D86">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E86">
-        <v>71</v>
-      </c>
-      <c r="F86">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2345,18 +2084,15 @@
         <v>46</v>
       </c>
       <c r="D87">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E87">
-        <v>166</v>
-      </c>
-      <c r="F87">
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2368,15 +2104,12 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2385,18 +2118,15 @@
         <v>47</v>
       </c>
       <c r="D89">
-        <v>685</v>
+        <v>527</v>
       </c>
       <c r="E89">
-        <v>527</v>
-      </c>
-      <c r="F89">
         <v>699</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2405,18 +2135,15 @@
         <v>44</v>
       </c>
       <c r="D90">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E90">
-        <v>45</v>
-      </c>
-      <c r="F90">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2425,18 +2152,15 @@
         <v>49</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="F91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2445,18 +2169,15 @@
         <v>48</v>
       </c>
       <c r="D92">
-        <v>570</v>
+        <v>459</v>
       </c>
       <c r="E92">
-        <v>459</v>
-      </c>
-      <c r="F92">
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -2465,18 +2186,15 @@
         <v>45</v>
       </c>
       <c r="D93">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E93">
-        <v>77</v>
-      </c>
-      <c r="F93">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -2485,18 +2203,15 @@
         <v>46</v>
       </c>
       <c r="D94">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E94">
-        <v>48</v>
-      </c>
-      <c r="F94">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -2505,18 +2220,15 @@
         <v>43</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -2525,18 +2237,15 @@
         <v>47</v>
       </c>
       <c r="D96">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E96">
-        <v>98</v>
-      </c>
-      <c r="F96">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -2545,18 +2254,15 @@
         <v>44</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>19</v>
-      </c>
-      <c r="F97">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -2565,18 +2271,15 @@
         <v>49</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>5</v>
-      </c>
-      <c r="F98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2585,18 +2288,15 @@
         <v>48</v>
       </c>
       <c r="D99">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E99">
-        <v>113</v>
-      </c>
-      <c r="F99">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
@@ -2605,18 +2305,15 @@
         <v>45</v>
       </c>
       <c r="D100">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E100">
-        <v>76</v>
-      </c>
-      <c r="F100">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
@@ -2625,18 +2322,15 @@
         <v>46</v>
       </c>
       <c r="D101">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E101">
-        <v>78</v>
-      </c>
-      <c r="F101">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -2645,18 +2339,15 @@
         <v>43</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>5</v>
-      </c>
-      <c r="F102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -2665,18 +2356,15 @@
         <v>47</v>
       </c>
       <c r="D103">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E103">
-        <v>158</v>
-      </c>
-      <c r="F103">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -2685,18 +2373,15 @@
         <v>44</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>22</v>
-      </c>
-      <c r="F104">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
@@ -2708,15 +2393,12 @@
         <v>7</v>
       </c>
       <c r="E105">
-        <v>7</v>
-      </c>
-      <c r="F105">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
@@ -2725,18 +2407,15 @@
         <v>48</v>
       </c>
       <c r="D106">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E106">
-        <v>119</v>
-      </c>
-      <c r="F106">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
@@ -2745,18 +2424,15 @@
         <v>45</v>
       </c>
       <c r="D107">
-        <v>522</v>
+        <v>429</v>
       </c>
       <c r="E107">
-        <v>429</v>
-      </c>
-      <c r="F107">
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
@@ -2765,18 +2441,15 @@
         <v>46</v>
       </c>
       <c r="D108">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E108">
-        <v>168</v>
-      </c>
-      <c r="F108">
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
@@ -2785,18 +2458,15 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>17</v>
-      </c>
-      <c r="F109">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -2805,18 +2475,15 @@
         <v>47</v>
       </c>
       <c r="D110">
-        <v>872</v>
+        <v>735</v>
       </c>
       <c r="E110">
-        <v>735</v>
-      </c>
-      <c r="F110">
         <v>764</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
@@ -2825,18 +2492,15 @@
         <v>44</v>
       </c>
       <c r="D111">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E111">
-        <v>132</v>
-      </c>
-      <c r="F111">
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
@@ -2845,18 +2509,15 @@
         <v>49</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>26</v>
-      </c>
-      <c r="F112">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
@@ -2865,16 +2526,13 @@
         <v>48</v>
       </c>
       <c r="D113">
-        <v>845</v>
+        <v>677</v>
       </c>
       <c r="E113">
-        <v>677</v>
-      </c>
-      <c r="F113">
         <v>685</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2885,16 +2543,13 @@
         <v>45</v>
       </c>
       <c r="D114">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E114">
-        <v>43</v>
-      </c>
-      <c r="F114">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -2905,16 +2560,13 @@
         <v>46</v>
       </c>
       <c r="D115">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="E115">
-        <v>152</v>
-      </c>
-      <c r="F115">
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2925,16 +2577,13 @@
         <v>43</v>
       </c>
       <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>1</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -2945,16 +2594,13 @@
         <v>47</v>
       </c>
       <c r="D117">
-        <v>665</v>
+        <v>526</v>
       </c>
       <c r="E117">
-        <v>526</v>
-      </c>
-      <c r="F117">
         <v>747</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2965,16 +2611,13 @@
         <v>44</v>
       </c>
       <c r="D118">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>26</v>
-      </c>
-      <c r="F118">
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2988,13 +2631,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3005,16 +2645,13 @@
         <v>48</v>
       </c>
       <c r="D120">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="E120">
-        <v>125</v>
-      </c>
-      <c r="F120">
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3025,16 +2662,13 @@
         <v>45</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>3</v>
-      </c>
-      <c r="F121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -3045,16 +2679,13 @@
         <v>46</v>
       </c>
       <c r="D122">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>17</v>
       </c>
-      <c r="F122">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3068,13 +2699,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3085,16 +2713,13 @@
         <v>47</v>
       </c>
       <c r="D124">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>14</v>
-      </c>
-      <c r="F124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3110,11 +2735,8 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -3128,13 +2750,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3145,16 +2764,13 @@
         <v>48</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
-      <c r="F127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -3165,16 +2781,13 @@
         <v>45</v>
       </c>
       <c r="D128">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E128">
-        <v>103</v>
-      </c>
-      <c r="F128">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3185,16 +2798,13 @@
         <v>46</v>
       </c>
       <c r="D129">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E129">
-        <v>52</v>
-      </c>
-      <c r="F129">
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3205,16 +2815,13 @@
         <v>43</v>
       </c>
       <c r="D130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>4</v>
-      </c>
-      <c r="F130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -3225,16 +2832,13 @@
         <v>47</v>
       </c>
       <c r="D131">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E131">
-        <v>195</v>
-      </c>
-      <c r="F131">
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -3245,16 +2849,13 @@
         <v>44</v>
       </c>
       <c r="D132">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E132">
-        <v>41</v>
-      </c>
-      <c r="F132">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3268,13 +2869,10 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>8</v>
-      </c>
-      <c r="F133">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3285,16 +2883,13 @@
         <v>48</v>
       </c>
       <c r="D134">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E134">
-        <v>136</v>
-      </c>
-      <c r="F134">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -3305,16 +2900,13 @@
         <v>45</v>
       </c>
       <c r="D135">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E135">
-        <v>226</v>
-      </c>
-      <c r="F135">
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -3325,16 +2917,13 @@
         <v>46</v>
       </c>
       <c r="D136">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="E136">
-        <v>175</v>
-      </c>
-      <c r="F136">
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3348,13 +2937,10 @@
         <v>14</v>
       </c>
       <c r="E137">
-        <v>14</v>
-      </c>
-      <c r="F137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3365,16 +2951,13 @@
         <v>47</v>
       </c>
       <c r="D138">
-        <v>882</v>
+        <v>732</v>
       </c>
       <c r="E138">
-        <v>732</v>
-      </c>
-      <c r="F138">
         <v>714</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3385,16 +2968,13 @@
         <v>44</v>
       </c>
       <c r="D139">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E139">
-        <v>62</v>
-      </c>
-      <c r="F139">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3405,16 +2985,13 @@
         <v>49</v>
       </c>
       <c r="D140">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140">
-        <v>24</v>
-      </c>
-      <c r="F140">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3425,16 +3002,13 @@
         <v>48</v>
       </c>
       <c r="D141">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="E141">
-        <v>340</v>
-      </c>
-      <c r="F141">
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -3445,16 +3019,13 @@
         <v>45</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E142">
-        <v>44</v>
-      </c>
-      <c r="F142">
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -3465,16 +3036,13 @@
         <v>46</v>
       </c>
       <c r="D143">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E143">
-        <v>67</v>
-      </c>
-      <c r="F143">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -3488,13 +3056,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -3505,16 +3070,13 @@
         <v>47</v>
       </c>
       <c r="D145">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E145">
-        <v>167</v>
-      </c>
-      <c r="F145">
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -3525,16 +3087,13 @@
         <v>44</v>
       </c>
       <c r="D146">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E146">
-        <v>21</v>
-      </c>
-      <c r="F146">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -3548,13 +3107,10 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -3565,16 +3121,13 @@
         <v>48</v>
       </c>
       <c r="D148">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E148">
-        <v>79</v>
-      </c>
-      <c r="F148">
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3585,16 +3138,13 @@
         <v>45</v>
       </c>
       <c r="D149">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="E149">
-        <v>226</v>
-      </c>
-      <c r="F149">
         <v>243</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -3605,16 +3155,13 @@
         <v>46</v>
       </c>
       <c r="D150">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E150">
-        <v>148</v>
-      </c>
-      <c r="F150">
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -3625,16 +3172,13 @@
         <v>43</v>
       </c>
       <c r="D151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>7</v>
-      </c>
-      <c r="F151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -3645,16 +3189,13 @@
         <v>47</v>
       </c>
       <c r="D152">
-        <v>822</v>
+        <v>697</v>
       </c>
       <c r="E152">
-        <v>697</v>
-      </c>
-      <c r="F152">
         <v>748</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -3665,16 +3206,13 @@
         <v>44</v>
       </c>
       <c r="D153">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E153">
-        <v>65</v>
-      </c>
-      <c r="F153">
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -3685,16 +3223,13 @@
         <v>49</v>
       </c>
       <c r="D154">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E154">
         <v>27</v>
       </c>
-      <c r="F154">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -3705,16 +3240,13 @@
         <v>48</v>
       </c>
       <c r="D155">
-        <v>650</v>
+        <v>543</v>
       </c>
       <c r="E155">
-        <v>543</v>
-      </c>
-      <c r="F155">
         <v>515</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -3725,16 +3257,13 @@
         <v>45</v>
       </c>
       <c r="D156">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E156">
-        <v>44</v>
-      </c>
-      <c r="F156">
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -3745,16 +3274,13 @@
         <v>46</v>
       </c>
       <c r="D157">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E157">
-        <v>35</v>
-      </c>
-      <c r="F157">
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -3768,13 +3294,10 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -3785,16 +3308,13 @@
         <v>47</v>
       </c>
       <c r="D159">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E159">
-        <v>113</v>
-      </c>
-      <c r="F159">
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -3805,16 +3325,13 @@
         <v>44</v>
       </c>
       <c r="D160">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E160">
-        <v>26</v>
-      </c>
-      <c r="F160">
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -3825,16 +3342,13 @@
         <v>49</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="F161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -3845,16 +3359,13 @@
         <v>48</v>
       </c>
       <c r="D162">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E162">
-        <v>54</v>
-      </c>
-      <c r="F162">
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -3865,16 +3376,13 @@
         <v>45</v>
       </c>
       <c r="D163">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E163">
-        <v>128</v>
-      </c>
-      <c r="F163">
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -3885,16 +3393,13 @@
         <v>46</v>
       </c>
       <c r="D164">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="E164">
-        <v>119</v>
-      </c>
-      <c r="F164">
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -3910,11 +3415,8 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -3925,16 +3427,13 @@
         <v>47</v>
       </c>
       <c r="D166">
-        <v>1045</v>
+        <v>892</v>
       </c>
       <c r="E166">
-        <v>892</v>
-      </c>
-      <c r="F166">
         <v>962</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -3945,16 +3444,13 @@
         <v>44</v>
       </c>
       <c r="D167">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E167">
-        <v>59</v>
-      </c>
-      <c r="F167">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -3965,16 +3461,13 @@
         <v>49</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>12</v>
-      </c>
-      <c r="F168">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>16</v>
       </c>
@@ -3985,16 +3478,13 @@
         <v>48</v>
       </c>
       <c r="D169">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="E169">
-        <v>337</v>
-      </c>
-      <c r="F169">
         <v>375</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -4005,16 +3495,13 @@
         <v>45</v>
       </c>
       <c r="D170">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E170">
-        <v>128</v>
-      </c>
-      <c r="F170">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -4025,16 +3512,13 @@
         <v>46</v>
       </c>
       <c r="D171">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E171">
-        <v>124</v>
-      </c>
-      <c r="F171">
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -4050,11 +3534,8 @@
       <c r="E172">
         <v>4</v>
       </c>
-      <c r="F172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -4065,16 +3546,13 @@
         <v>47</v>
       </c>
       <c r="D173">
-        <v>662</v>
+        <v>564</v>
       </c>
       <c r="E173">
-        <v>564</v>
-      </c>
-      <c r="F173">
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -4085,16 +3563,13 @@
         <v>44</v>
       </c>
       <c r="D174">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E174">
-        <v>70</v>
-      </c>
-      <c r="F174">
         <v>95</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -4105,16 +3580,13 @@
         <v>49</v>
       </c>
       <c r="D175">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>16</v>
-      </c>
-      <c r="F175">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -4125,16 +3597,13 @@
         <v>48</v>
       </c>
       <c r="D176">
-        <v>552</v>
+        <v>455</v>
       </c>
       <c r="E176">
-        <v>455</v>
-      </c>
-      <c r="F176">
         <v>413</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -4148,13 +3617,10 @@
         <v>1</v>
       </c>
       <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -4168,13 +3634,10 @@
         <v>3</v>
       </c>
       <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="F178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -4190,11 +3653,8 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -4205,16 +3665,13 @@
         <v>47</v>
       </c>
       <c r="D180">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>4</v>
-      </c>
-      <c r="F180">
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -4228,13 +3685,10 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -4250,11 +3704,8 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -4268,13 +3719,10 @@
         <v>6</v>
       </c>
       <c r="E183">
-        <v>6</v>
-      </c>
-      <c r="F183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -4285,16 +3733,13 @@
         <v>45</v>
       </c>
       <c r="D184">
-        <v>825</v>
+        <v>696</v>
       </c>
       <c r="E184">
-        <v>696</v>
-      </c>
-      <c r="F184">
         <v>885</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -4305,16 +3750,13 @@
         <v>46</v>
       </c>
       <c r="D185">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="E185">
-        <v>485</v>
-      </c>
-      <c r="F185">
         <v>629</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -4325,16 +3767,13 @@
         <v>43</v>
       </c>
       <c r="D186">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E186">
-        <v>19</v>
-      </c>
-      <c r="F186">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -4345,16 +3784,13 @@
         <v>47</v>
       </c>
       <c r="D187">
-        <v>1173</v>
+        <v>941</v>
       </c>
       <c r="E187">
-        <v>941</v>
-      </c>
-      <c r="F187">
         <v>1109</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -4365,16 +3801,13 @@
         <v>44</v>
       </c>
       <c r="D188">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E188">
-        <v>223</v>
-      </c>
-      <c r="F188">
         <v>293</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -4385,16 +3818,13 @@
         <v>49</v>
       </c>
       <c r="D189">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E189">
-        <v>59</v>
-      </c>
-      <c r="F189">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -4405,16 +3835,13 @@
         <v>48</v>
       </c>
       <c r="D190">
-        <v>1077</v>
+        <v>834</v>
       </c>
       <c r="E190">
-        <v>834</v>
-      </c>
-      <c r="F190">
         <v>854</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -4425,16 +3852,13 @@
         <v>45</v>
       </c>
       <c r="D191">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E191">
-        <v>98</v>
-      </c>
-      <c r="F191">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -4445,16 +3869,13 @@
         <v>46</v>
       </c>
       <c r="D192">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E192">
-        <v>69</v>
-      </c>
-      <c r="F192">
         <v>114</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -4468,13 +3889,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>2</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -4485,16 +3903,13 @@
         <v>47</v>
       </c>
       <c r="D194">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="E194">
-        <v>127</v>
-      </c>
-      <c r="F194">
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -4505,16 +3920,13 @@
         <v>44</v>
       </c>
       <c r="D195">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>15</v>
-      </c>
-      <c r="F195">
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4525,16 +3937,13 @@
         <v>49</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E196">
         <v>9</v>
       </c>
-      <c r="F196">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -4545,16 +3954,13 @@
         <v>48</v>
       </c>
       <c r="D197">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E197">
-        <v>122</v>
-      </c>
-      <c r="F197">
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -4565,16 +3971,13 @@
         <v>45</v>
       </c>
       <c r="D198">
+        <v>48</v>
+      </c>
+      <c r="E198">
         <v>54</v>
       </c>
-      <c r="E198">
-        <v>48</v>
-      </c>
-      <c r="F198">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -4585,16 +3988,13 @@
         <v>46</v>
       </c>
       <c r="D199">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E199">
-        <v>44</v>
-      </c>
-      <c r="F199">
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -4608,13 +4008,10 @@
         <v>1</v>
       </c>
       <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -4625,16 +4022,13 @@
         <v>47</v>
       </c>
       <c r="D201">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E201">
-        <v>189</v>
-      </c>
-      <c r="F201">
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -4648,13 +4042,10 @@
         <v>12</v>
       </c>
       <c r="E202">
-        <v>12</v>
-      </c>
-      <c r="F202">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -4668,13 +4059,10 @@
         <v>4</v>
       </c>
       <c r="E203">
-        <v>4</v>
-      </c>
-      <c r="F203">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -4685,16 +4073,13 @@
         <v>48</v>
       </c>
       <c r="D204">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E204">
-        <v>41</v>
-      </c>
-      <c r="F204">
         <v>68</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -4705,16 +4090,13 @@
         <v>45</v>
       </c>
       <c r="D205">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E205">
-        <v>24</v>
-      </c>
-      <c r="F205">
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -4725,16 +4107,13 @@
         <v>46</v>
       </c>
       <c r="D206">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E206">
-        <v>64</v>
-      </c>
-      <c r="F206">
         <v>70</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -4750,11 +4129,8 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -4765,16 +4141,13 @@
         <v>47</v>
       </c>
       <c r="D208">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="E208">
-        <v>260</v>
-      </c>
-      <c r="F208">
         <v>232</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -4785,16 +4158,13 @@
         <v>44</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>11</v>
-      </c>
-      <c r="F209">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -4808,13 +4178,10 @@
         <v>6</v>
       </c>
       <c r="E210">
-        <v>6</v>
-      </c>
-      <c r="F210">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -4825,16 +4192,13 @@
         <v>48</v>
       </c>
       <c r="D211">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E211">
-        <v>31</v>
-      </c>
-      <c r="F211">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4850,11 +4214,8 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4868,13 +4229,10 @@
         <v>1</v>
       </c>
       <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -4890,11 +4248,8 @@
       <c r="E214">
         <v>0</v>
       </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -4905,16 +4260,13 @@
         <v>47</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215">
         <v>3</v>
       </c>
-      <c r="F215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -4930,11 +4282,8 @@
       <c r="E216">
         <v>0</v>
       </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -4950,11 +4299,8 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -4970,11 +4316,8 @@
       <c r="E218">
         <v>0</v>
       </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -4985,16 +4328,13 @@
         <v>45</v>
       </c>
       <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
         <v>3</v>
       </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -5005,16 +4345,13 @@
         <v>46</v>
       </c>
       <c r="D220">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E220">
-        <v>22</v>
-      </c>
-      <c r="F220">
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -5030,11 +4367,8 @@
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -5045,16 +4379,13 @@
         <v>47</v>
       </c>
       <c r="D222">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E222">
-        <v>44</v>
-      </c>
-      <c r="F222">
         <v>69</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -5065,16 +4396,13 @@
         <v>44</v>
       </c>
       <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
         <v>3</v>
       </c>
-      <c r="E223">
-        <v>2</v>
-      </c>
-      <c r="F223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -5088,13 +4416,10 @@
         <v>2</v>
       </c>
       <c r="E224">
-        <v>2</v>
-      </c>
-      <c r="F224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -5105,16 +4430,13 @@
         <v>48</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>5</v>
-      </c>
-      <c r="F225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -5125,16 +4447,13 @@
         <v>45</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>10</v>
-      </c>
-      <c r="F226">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5145,16 +4464,13 @@
         <v>46</v>
       </c>
       <c r="D227">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E227">
-        <v>14</v>
-      </c>
-      <c r="F227">
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -5170,11 +4486,8 @@
       <c r="E228">
         <v>0</v>
       </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -5185,16 +4498,13 @@
         <v>47</v>
       </c>
       <c r="D229">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E229">
-        <v>36</v>
-      </c>
-      <c r="F229">
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -5208,13 +4518,10 @@
         <v>1</v>
       </c>
       <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -5228,13 +4535,10 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -5245,18 +4549,15 @@
         <v>48</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E232">
         <v>10</v>
       </c>
-      <c r="F232">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B233" t="s">
         <v>23</v>
@@ -5265,18 +4566,15 @@
         <v>45</v>
       </c>
       <c r="D233">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>12</v>
-      </c>
-      <c r="F233">
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B234" t="s">
         <v>23</v>
@@ -5285,18 +4583,15 @@
         <v>46</v>
       </c>
       <c r="D234">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E234">
-        <v>39</v>
-      </c>
-      <c r="F234">
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -5310,13 +4605,10 @@
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B236" t="s">
         <v>23</v>
@@ -5325,18 +4617,15 @@
         <v>47</v>
       </c>
       <c r="D236">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E236">
-        <v>195</v>
-      </c>
-      <c r="F236">
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B237" t="s">
         <v>23</v>
@@ -5345,18 +4634,15 @@
         <v>44</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E237">
-        <v>8</v>
-      </c>
-      <c r="F237">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -5368,15 +4654,12 @@
         <v>2</v>
       </c>
       <c r="E238">
-        <v>2</v>
-      </c>
-      <c r="F238">
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -5385,18 +4668,15 @@
         <v>48</v>
       </c>
       <c r="D239">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E239">
-        <v>25</v>
-      </c>
-      <c r="F239">
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
@@ -5408,15 +4688,12 @@
         <v>12</v>
       </c>
       <c r="E240">
-        <v>12</v>
-      </c>
-      <c r="F240">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B241" t="s">
         <v>24</v>
@@ -5425,18 +4702,15 @@
         <v>46</v>
       </c>
       <c r="D241">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E241">
-        <v>46</v>
-      </c>
-      <c r="F241">
         <v>70</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B242" t="s">
         <v>24</v>
@@ -5450,13 +4724,10 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B243" t="s">
         <v>24</v>
@@ -5465,18 +4736,15 @@
         <v>47</v>
       </c>
       <c r="D243">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="E243">
-        <v>207</v>
-      </c>
-      <c r="F243">
         <v>199</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B244" t="s">
         <v>24</v>
@@ -5488,15 +4756,12 @@
         <v>15</v>
       </c>
       <c r="E244">
-        <v>15</v>
-      </c>
-      <c r="F244">
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
@@ -5505,18 +4770,15 @@
         <v>49</v>
       </c>
       <c r="D245">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>9</v>
-      </c>
-      <c r="F245">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
@@ -5525,18 +4787,15 @@
         <v>48</v>
       </c>
       <c r="D246">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E246">
-        <v>20</v>
-      </c>
-      <c r="F246">
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B247" t="s">
         <v>25</v>
@@ -5548,15 +4807,12 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>3</v>
-      </c>
-      <c r="F247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B248" t="s">
         <v>25</v>
@@ -5568,15 +4824,12 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B249" t="s">
         <v>25</v>
@@ -5590,13 +4843,10 @@
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
@@ -5610,13 +4860,10 @@
       <c r="E250">
         <v>3</v>
       </c>
-      <c r="F250">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B251" t="s">
         <v>25</v>
@@ -5625,18 +4872,15 @@
         <v>44</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B252" t="s">
         <v>25</v>
@@ -5648,15 +4892,12 @@
         <v>1</v>
       </c>
       <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B253" t="s">
         <v>25</v>
@@ -5670,13 +4911,10 @@
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B254" t="s">
         <v>26</v>
@@ -5685,18 +4923,15 @@
         <v>45</v>
       </c>
       <c r="D254">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E254">
-        <v>42</v>
-      </c>
-      <c r="F254">
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B255" t="s">
         <v>26</v>
@@ -5705,18 +4940,15 @@
         <v>46</v>
       </c>
       <c r="D255">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E255">
-        <v>37</v>
-      </c>
-      <c r="F255">
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B256" t="s">
         <v>26</v>
@@ -5728,15 +4960,12 @@
         <v>1</v>
       </c>
       <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B257" t="s">
         <v>26</v>
@@ -5745,18 +4974,15 @@
         <v>47</v>
       </c>
       <c r="D257">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E257">
-        <v>264</v>
-      </c>
-      <c r="F257">
         <v>287</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B258" t="s">
         <v>26</v>
@@ -5765,18 +4991,15 @@
         <v>44</v>
       </c>
       <c r="D258">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>12</v>
-      </c>
-      <c r="F258">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B259" t="s">
         <v>26</v>
@@ -5790,13 +5013,10 @@
       <c r="E259">
         <v>8</v>
       </c>
-      <c r="F259">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B260" t="s">
         <v>26</v>
@@ -5805,18 +5025,15 @@
         <v>48</v>
       </c>
       <c r="D260">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E260">
-        <v>46</v>
-      </c>
-      <c r="F260">
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B261" t="s">
         <v>0</v>
@@ -5825,18 +5042,15 @@
         <v>45</v>
       </c>
       <c r="D261">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E261">
-        <v>20</v>
-      </c>
-      <c r="F261">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B262" t="s">
         <v>0</v>
@@ -5845,18 +5059,15 @@
         <v>46</v>
       </c>
       <c r="D262">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E262">
-        <v>51</v>
-      </c>
-      <c r="F262">
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B263" t="s">
         <v>0</v>
@@ -5868,15 +5079,12 @@
         <v>1</v>
       </c>
       <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B264" t="s">
         <v>0</v>
@@ -5885,18 +5093,15 @@
         <v>47</v>
       </c>
       <c r="D264">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E264">
-        <v>160</v>
-      </c>
-      <c r="F264">
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B265" t="s">
         <v>0</v>
@@ -5905,18 +5110,15 @@
         <v>44</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E265">
-        <v>3</v>
-      </c>
-      <c r="F265">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B266" t="s">
         <v>0</v>
@@ -5925,18 +5127,15 @@
         <v>49</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>3</v>
-      </c>
-      <c r="F266">
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B267" t="s">
         <v>0</v>
@@ -5945,18 +5144,15 @@
         <v>48</v>
       </c>
       <c r="D267">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E267">
-        <v>31</v>
-      </c>
-      <c r="F267">
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B268" t="s">
         <v>27</v>
@@ -5965,18 +5161,15 @@
         <v>45</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E268">
         <v>3</v>
       </c>
-      <c r="F268">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B269" t="s">
         <v>27</v>
@@ -5985,18 +5178,15 @@
         <v>46</v>
       </c>
       <c r="D269">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E269">
         <v>33</v>
       </c>
-      <c r="F269">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B270" t="s">
         <v>27</v>
@@ -6010,13 +5200,10 @@
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B271" t="s">
         <v>27</v>
@@ -6025,18 +5212,15 @@
         <v>47</v>
       </c>
       <c r="D271">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E271">
-        <v>69</v>
-      </c>
-      <c r="F271">
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B272" t="s">
         <v>27</v>
@@ -6045,18 +5229,15 @@
         <v>44</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>2</v>
-      </c>
-      <c r="F272">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B273" t="s">
         <v>27</v>
@@ -6068,15 +5249,12 @@
         <v>3</v>
       </c>
       <c r="E273">
-        <v>3</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B274" t="s">
         <v>27</v>
@@ -6085,18 +5263,15 @@
         <v>48</v>
       </c>
       <c r="D274">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E274">
-        <v>7</v>
-      </c>
-      <c r="F274">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B275" t="s">
         <v>0</v>
@@ -6105,18 +5280,15 @@
         <v>45</v>
       </c>
       <c r="D275">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E275">
-        <v>47</v>
-      </c>
-      <c r="F275">
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B276" t="s">
         <v>0</v>
@@ -6125,18 +5297,15 @@
         <v>46</v>
       </c>
       <c r="D276">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E276">
-        <v>105</v>
-      </c>
-      <c r="F276">
         <v>117</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B277" t="s">
         <v>0</v>
@@ -6150,13 +5319,10 @@
       <c r="E277">
         <v>2</v>
       </c>
-      <c r="F277">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B278" t="s">
         <v>0</v>
@@ -6165,18 +5331,15 @@
         <v>47</v>
       </c>
       <c r="D278">
-        <v>677</v>
+        <v>562</v>
       </c>
       <c r="E278">
-        <v>562</v>
-      </c>
-      <c r="F278">
         <v>463</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B279" t="s">
         <v>0</v>
@@ -6185,18 +5348,15 @@
         <v>44</v>
       </c>
       <c r="D279">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E279">
-        <v>16</v>
-      </c>
-      <c r="F279">
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B280" t="s">
         <v>0</v>
@@ -6205,18 +5365,15 @@
         <v>49</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E280">
-        <v>8</v>
-      </c>
-      <c r="F280">
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B281" t="s">
         <v>0</v>
@@ -6225,16 +5382,13 @@
         <v>48</v>
       </c>
       <c r="D281">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="E281">
-        <v>160</v>
-      </c>
-      <c r="F281">
         <v>163</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -6245,16 +5399,13 @@
         <v>45</v>
       </c>
       <c r="D282">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E282">
-        <v>33</v>
-      </c>
-      <c r="F282">
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -6265,16 +5416,13 @@
         <v>46</v>
       </c>
       <c r="D283">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E283">
-        <v>66</v>
-      </c>
-      <c r="F283">
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -6290,11 +5438,8 @@
       <c r="E284">
         <v>1</v>
       </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -6305,16 +5450,13 @@
         <v>47</v>
       </c>
       <c r="D285">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="E285">
-        <v>377</v>
-      </c>
-      <c r="F285">
         <v>436</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -6325,16 +5467,13 @@
         <v>44</v>
       </c>
       <c r="D286">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E286">
-        <v>19</v>
-      </c>
-      <c r="F286">
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -6345,16 +5484,13 @@
         <v>49</v>
       </c>
       <c r="D287">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E287">
-        <v>8</v>
-      </c>
-      <c r="F287">
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -6365,16 +5501,13 @@
         <v>48</v>
       </c>
       <c r="D288">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E288">
-        <v>140</v>
-      </c>
-      <c r="F288">
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -6385,16 +5518,13 @@
         <v>45</v>
       </c>
       <c r="D289">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E289">
-        <v>149</v>
-      </c>
-      <c r="F289">
         <v>206</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -6405,16 +5535,13 @@
         <v>46</v>
       </c>
       <c r="D290">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E290">
-        <v>154</v>
-      </c>
-      <c r="F290">
         <v>225</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>29</v>
       </c>
@@ -6430,11 +5557,8 @@
       <c r="E291">
         <v>3</v>
       </c>
-      <c r="F291">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>29</v>
       </c>
@@ -6445,16 +5569,13 @@
         <v>47</v>
       </c>
       <c r="D292">
-        <v>838</v>
+        <v>715</v>
       </c>
       <c r="E292">
-        <v>715</v>
-      </c>
-      <c r="F292">
         <v>814</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>29</v>
       </c>
@@ -6465,16 +5586,13 @@
         <v>44</v>
       </c>
       <c r="D293">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E293">
-        <v>68</v>
-      </c>
-      <c r="F293">
         <v>87</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>29</v>
       </c>
@@ -6485,16 +5603,13 @@
         <v>49</v>
       </c>
       <c r="D294">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E294">
-        <v>21</v>
-      </c>
-      <c r="F294">
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>29</v>
       </c>
@@ -6505,16 +5620,13 @@
         <v>48</v>
       </c>
       <c r="D295">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="E295">
-        <v>435</v>
-      </c>
-      <c r="F295">
         <v>468</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>29</v>
       </c>
@@ -6525,16 +5637,13 @@
         <v>45</v>
       </c>
       <c r="D296">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E296">
-        <v>124</v>
-      </c>
-      <c r="F296">
         <v>135</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>29</v>
       </c>
@@ -6545,16 +5654,13 @@
         <v>46</v>
       </c>
       <c r="D297">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E297">
-        <v>60</v>
-      </c>
-      <c r="F297">
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>29</v>
       </c>
@@ -6565,16 +5671,13 @@
         <v>43</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E298">
-        <v>1</v>
-      </c>
-      <c r="F298">
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -6585,16 +5688,13 @@
         <v>47</v>
       </c>
       <c r="D299">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="E299">
-        <v>393</v>
-      </c>
-      <c r="F299">
         <v>370</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>29</v>
       </c>
@@ -6605,16 +5705,13 @@
         <v>44</v>
       </c>
       <c r="D300">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E300">
-        <v>24</v>
-      </c>
-      <c r="F300">
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>29</v>
       </c>
@@ -6625,16 +5722,13 @@
         <v>49</v>
       </c>
       <c r="D301">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E301">
-        <v>17</v>
-      </c>
-      <c r="F301">
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>29</v>
       </c>
@@ -6645,16 +5739,13 @@
         <v>48</v>
       </c>
       <c r="D302">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E302">
-        <v>159</v>
-      </c>
-      <c r="F302">
         <v>178</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>30</v>
       </c>
@@ -6665,16 +5756,13 @@
         <v>45</v>
       </c>
       <c r="D303">
-        <v>555</v>
+        <v>490</v>
       </c>
       <c r="E303">
-        <v>490</v>
-      </c>
-      <c r="F303">
         <v>544</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>30</v>
       </c>
@@ -6685,16 +5773,13 @@
         <v>46</v>
       </c>
       <c r="D304">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="E304">
-        <v>275</v>
-      </c>
-      <c r="F304">
         <v>359</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>30</v>
       </c>
@@ -6705,16 +5790,13 @@
         <v>43</v>
       </c>
       <c r="D305">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E305">
-        <v>6</v>
-      </c>
-      <c r="F305">
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -6725,16 +5807,13 @@
         <v>47</v>
       </c>
       <c r="D306">
-        <v>1304</v>
+        <v>1029</v>
       </c>
       <c r="E306">
-        <v>1029</v>
-      </c>
-      <c r="F306">
         <v>1164</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>30</v>
       </c>
@@ -6745,16 +5824,13 @@
         <v>44</v>
       </c>
       <c r="D307">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E307">
-        <v>113</v>
-      </c>
-      <c r="F307">
         <v>175</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>30</v>
       </c>
@@ -6765,16 +5841,13 @@
         <v>49</v>
       </c>
       <c r="D308">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E308">
-        <v>56</v>
-      </c>
-      <c r="F308">
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6785,16 +5858,13 @@
         <v>48</v>
       </c>
       <c r="D309">
-        <v>525</v>
+        <v>411</v>
       </c>
       <c r="E309">
-        <v>411</v>
-      </c>
-      <c r="F309">
         <v>511</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -6805,16 +5875,13 @@
         <v>45</v>
       </c>
       <c r="D310">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E310">
-        <v>90</v>
-      </c>
-      <c r="F310">
         <v>127</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>30</v>
       </c>
@@ -6825,16 +5892,13 @@
         <v>46</v>
       </c>
       <c r="D311">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E311">
-        <v>106</v>
-      </c>
-      <c r="F311">
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>30</v>
       </c>
@@ -6845,16 +5909,13 @@
         <v>43</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E312">
-        <v>3</v>
-      </c>
-      <c r="F312">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>30</v>
       </c>
@@ -6865,16 +5926,13 @@
         <v>47</v>
       </c>
       <c r="D313">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="E313">
-        <v>170</v>
-      </c>
-      <c r="F313">
         <v>189</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>30</v>
       </c>
@@ -6885,16 +5943,13 @@
         <v>44</v>
       </c>
       <c r="D314">
+        <v>11</v>
+      </c>
+      <c r="E314">
         <v>17</v>
       </c>
-      <c r="E314">
-        <v>11</v>
-      </c>
-      <c r="F314">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -6905,16 +5960,13 @@
         <v>49</v>
       </c>
       <c r="D315">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E315">
-        <v>12</v>
-      </c>
-      <c r="F315">
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -6925,16 +5977,13 @@
         <v>48</v>
       </c>
       <c r="D316">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E316">
-        <v>121</v>
-      </c>
-      <c r="F316">
         <v>145</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -6945,16 +5994,13 @@
         <v>45</v>
       </c>
       <c r="D317">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E317">
-        <v>124</v>
-      </c>
-      <c r="F317">
         <v>162</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>31</v>
       </c>
@@ -6965,16 +6011,13 @@
         <v>46</v>
       </c>
       <c r="D318">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="E318">
-        <v>136</v>
-      </c>
-      <c r="F318">
         <v>249</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>31</v>
       </c>
@@ -6985,16 +6028,13 @@
         <v>43</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E319">
         <v>4</v>
       </c>
-      <c r="F319">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>31</v>
       </c>
@@ -7005,16 +6045,13 @@
         <v>47</v>
       </c>
       <c r="D320">
-        <v>664</v>
+        <v>540</v>
       </c>
       <c r="E320">
-        <v>540</v>
-      </c>
-      <c r="F320">
         <v>582</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>31</v>
       </c>
@@ -7025,16 +6062,13 @@
         <v>44</v>
       </c>
       <c r="D321">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E321">
-        <v>58</v>
-      </c>
-      <c r="F321">
         <v>69</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>31</v>
       </c>
@@ -7045,16 +6079,13 @@
         <v>49</v>
       </c>
       <c r="D322">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>9</v>
-      </c>
-      <c r="F322">
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>31</v>
       </c>
@@ -7065,16 +6096,13 @@
         <v>48</v>
       </c>
       <c r="D323">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="E323">
-        <v>363</v>
-      </c>
-      <c r="F323">
         <v>350</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>31</v>
       </c>
@@ -7085,16 +6113,13 @@
         <v>45</v>
       </c>
       <c r="D324">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E324">
-        <v>59</v>
-      </c>
-      <c r="F324">
         <v>79</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>31</v>
       </c>
@@ -7105,16 +6130,13 @@
         <v>46</v>
       </c>
       <c r="D325">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E325">
-        <v>54</v>
-      </c>
-      <c r="F325">
         <v>50</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -7130,11 +6152,8 @@
       <c r="E326">
         <v>0</v>
       </c>
-      <c r="F326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -7145,16 +6164,13 @@
         <v>47</v>
       </c>
       <c r="D327">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="E327">
-        <v>217</v>
-      </c>
-      <c r="F327">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>31</v>
       </c>
@@ -7165,16 +6181,13 @@
         <v>44</v>
       </c>
       <c r="D328">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E328">
-        <v>17</v>
-      </c>
-      <c r="F328">
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>31</v>
       </c>
@@ -7188,13 +6201,10 @@
         <v>6</v>
       </c>
       <c r="E329">
-        <v>6</v>
-      </c>
-      <c r="F329">
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>31</v>
       </c>
@@ -7205,16 +6215,13 @@
         <v>48</v>
       </c>
       <c r="D330">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E330">
-        <v>134</v>
-      </c>
-      <c r="F330">
         <v>146</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>32</v>
       </c>
@@ -7225,16 +6232,13 @@
         <v>45</v>
       </c>
       <c r="D331">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>26</v>
-      </c>
-      <c r="F331">
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -7245,16 +6249,13 @@
         <v>46</v>
       </c>
       <c r="D332">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E332">
-        <v>93</v>
-      </c>
-      <c r="F332">
         <v>111</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>32</v>
       </c>
@@ -7268,13 +6269,10 @@
         <v>3</v>
       </c>
       <c r="E333">
-        <v>3</v>
-      </c>
-      <c r="F333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>32</v>
       </c>
@@ -7285,16 +6283,13 @@
         <v>47</v>
       </c>
       <c r="D334">
-        <v>524</v>
+        <v>436</v>
       </c>
       <c r="E334">
-        <v>436</v>
-      </c>
-      <c r="F334">
         <v>468</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>32</v>
       </c>
@@ -7305,16 +6300,13 @@
         <v>44</v>
       </c>
       <c r="D335">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E335">
-        <v>17</v>
-      </c>
-      <c r="F335">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>32</v>
       </c>
@@ -7325,16 +6317,13 @@
         <v>49</v>
       </c>
       <c r="D336">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>10</v>
-      </c>
-      <c r="F336">
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>32</v>
       </c>
@@ -7345,16 +6334,13 @@
         <v>48</v>
       </c>
       <c r="D337">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E337">
-        <v>79</v>
-      </c>
-      <c r="F337">
         <v>72</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>32</v>
       </c>
@@ -7365,16 +6351,13 @@
         <v>45</v>
       </c>
       <c r="D338">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E338">
-        <v>85</v>
-      </c>
-      <c r="F338">
         <v>67</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>32</v>
       </c>
@@ -7385,16 +6368,13 @@
         <v>46</v>
       </c>
       <c r="D339">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E339">
-        <v>54</v>
-      </c>
-      <c r="F339">
         <v>73</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>32</v>
       </c>
@@ -7408,13 +6388,10 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>1</v>
-      </c>
-      <c r="F340">
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>32</v>
       </c>
@@ -7425,16 +6402,13 @@
         <v>47</v>
       </c>
       <c r="D341">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="E341">
-        <v>289</v>
-      </c>
-      <c r="F341">
         <v>322</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>32</v>
       </c>
@@ -7445,16 +6419,13 @@
         <v>44</v>
       </c>
       <c r="D342">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E342">
-        <v>14</v>
-      </c>
-      <c r="F342">
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>32</v>
       </c>
@@ -7465,16 +6436,13 @@
         <v>49</v>
       </c>
       <c r="D343">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E343">
-        <v>14</v>
-      </c>
-      <c r="F343">
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -7485,18 +6453,15 @@
         <v>48</v>
       </c>
       <c r="D344">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E344">
-        <v>106</v>
-      </c>
-      <c r="F344">
         <v>99</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B345" t="s">
         <v>33</v>
@@ -7505,18 +6470,15 @@
         <v>45</v>
       </c>
       <c r="D345">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E345">
-        <v>146</v>
-      </c>
-      <c r="F345">
         <v>198</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B346" t="s">
         <v>33</v>
@@ -7525,18 +6487,15 @@
         <v>46</v>
       </c>
       <c r="D346">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="E346">
-        <v>240</v>
-      </c>
-      <c r="F346">
         <v>288</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B347" t="s">
         <v>33</v>
@@ -7545,18 +6504,15 @@
         <v>43</v>
       </c>
       <c r="D347">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E347">
-        <v>3</v>
-      </c>
-      <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B348" t="s">
         <v>33</v>
@@ -7565,18 +6521,15 @@
         <v>47</v>
       </c>
       <c r="D348">
-        <v>1486</v>
+        <v>1198</v>
       </c>
       <c r="E348">
-        <v>1198</v>
-      </c>
-      <c r="F348">
         <v>1439</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B349" t="s">
         <v>33</v>
@@ -7585,18 +6538,15 @@
         <v>44</v>
       </c>
       <c r="D349">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E349">
-        <v>59</v>
-      </c>
-      <c r="F349">
         <v>76</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B350" t="s">
         <v>33</v>
@@ -7605,18 +6555,15 @@
         <v>49</v>
       </c>
       <c r="D350">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E350">
-        <v>38</v>
-      </c>
-      <c r="F350">
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B351" t="s">
         <v>33</v>
@@ -7625,18 +6572,15 @@
         <v>48</v>
       </c>
       <c r="D351">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="E351">
-        <v>274</v>
-      </c>
-      <c r="F351">
         <v>298</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B352" t="s">
         <v>0</v>
@@ -7645,18 +6589,15 @@
         <v>45</v>
       </c>
       <c r="D352">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E352">
-        <v>39</v>
-      </c>
-      <c r="F352">
         <v>52</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B353" t="s">
         <v>0</v>
@@ -7665,18 +6606,15 @@
         <v>46</v>
       </c>
       <c r="D353">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E353">
-        <v>79</v>
-      </c>
-      <c r="F353">
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B354" t="s">
         <v>0</v>
@@ -7688,15 +6626,12 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B355" t="s">
         <v>0</v>
@@ -7705,18 +6640,15 @@
         <v>47</v>
       </c>
       <c r="D355">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="E355">
-        <v>355</v>
-      </c>
-      <c r="F355">
         <v>459</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B356" t="s">
         <v>0</v>
@@ -7725,18 +6657,15 @@
         <v>44</v>
       </c>
       <c r="D356">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E356">
-        <v>15</v>
-      </c>
-      <c r="F356">
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B357" t="s">
         <v>0</v>
@@ -7745,18 +6674,15 @@
         <v>49</v>
       </c>
       <c r="D357">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E357">
-        <v>12</v>
-      </c>
-      <c r="F357">
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B358" t="s">
         <v>0</v>
@@ -7765,18 +6691,15 @@
         <v>48</v>
       </c>
       <c r="D358">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E358">
-        <v>70</v>
-      </c>
-      <c r="F358">
         <v>86</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B359" t="s">
         <v>34</v>
@@ -7785,18 +6708,15 @@
         <v>45</v>
       </c>
       <c r="D359">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E359">
-        <v>60</v>
-      </c>
-      <c r="F359">
         <v>67</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B360" t="s">
         <v>34</v>
@@ -7805,18 +6725,15 @@
         <v>46</v>
       </c>
       <c r="D360">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E360">
-        <v>49</v>
-      </c>
-      <c r="F360">
         <v>61</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B361" t="s">
         <v>34</v>
@@ -7828,15 +6745,12 @@
         <v>2</v>
       </c>
       <c r="E361">
-        <v>2</v>
-      </c>
-      <c r="F361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B362" t="s">
         <v>34</v>
@@ -7845,18 +6759,15 @@
         <v>47</v>
       </c>
       <c r="D362">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="E362">
-        <v>288</v>
-      </c>
-      <c r="F362">
         <v>193</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B363" t="s">
         <v>34</v>
@@ -7865,18 +6776,15 @@
         <v>44</v>
       </c>
       <c r="D363">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E363">
-        <v>32</v>
-      </c>
-      <c r="F363">
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B364" t="s">
         <v>34</v>
@@ -7885,18 +6793,15 @@
         <v>49</v>
       </c>
       <c r="D364">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E364">
-        <v>6</v>
-      </c>
-      <c r="F364">
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B365" t="s">
         <v>34</v>
@@ -7905,18 +6810,15 @@
         <v>48</v>
       </c>
       <c r="D365">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E365">
-        <v>142</v>
-      </c>
-      <c r="F365">
         <v>140</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B366" t="s">
         <v>0</v>
@@ -7925,18 +6827,15 @@
         <v>45</v>
       </c>
       <c r="D366">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="E366">
-        <v>424</v>
-      </c>
-      <c r="F366">
         <v>484</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B367" t="s">
         <v>0</v>
@@ -7945,18 +6844,15 @@
         <v>46</v>
       </c>
       <c r="D367">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E367">
-        <v>138</v>
-      </c>
-      <c r="F367">
         <v>153</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B368" t="s">
         <v>0</v>
@@ -7965,18 +6861,15 @@
         <v>43</v>
       </c>
       <c r="D368">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E368">
-        <v>24</v>
-      </c>
-      <c r="F368">
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B369" t="s">
         <v>0</v>
@@ -7985,18 +6878,15 @@
         <v>47</v>
       </c>
       <c r="D369">
-        <v>545</v>
+        <v>468</v>
       </c>
       <c r="E369">
-        <v>468</v>
-      </c>
-      <c r="F369">
         <v>458</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B370" t="s">
         <v>0</v>
@@ -8005,18 +6895,15 @@
         <v>44</v>
       </c>
       <c r="D370">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E370">
-        <v>123</v>
-      </c>
-      <c r="F370">
         <v>136</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B371" t="s">
         <v>0</v>
@@ -8025,18 +6912,15 @@
         <v>49</v>
       </c>
       <c r="D371">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E371">
-        <v>10</v>
-      </c>
-      <c r="F371">
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B372" t="s">
         <v>0</v>
@@ -8045,18 +6929,15 @@
         <v>48</v>
       </c>
       <c r="D372">
-        <v>594</v>
+        <v>495</v>
       </c>
       <c r="E372">
-        <v>495</v>
-      </c>
-      <c r="F372">
         <v>474</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B373" t="s">
         <v>35</v>
@@ -8070,13 +6951,10 @@
       <c r="E373">
         <v>0</v>
       </c>
-      <c r="F373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B374" t="s">
         <v>35</v>
@@ -8085,18 +6963,15 @@
         <v>46</v>
       </c>
       <c r="D374">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E374">
-        <v>3</v>
-      </c>
-      <c r="F374">
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B375" t="s">
         <v>35</v>
@@ -8110,13 +6985,10 @@
       <c r="E375">
         <v>0</v>
       </c>
-      <c r="F375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B376" t="s">
         <v>35</v>
@@ -8128,15 +7000,12 @@
         <v>4</v>
       </c>
       <c r="E376">
-        <v>4</v>
-      </c>
-      <c r="F376">
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B377" t="s">
         <v>35</v>
@@ -8150,13 +7019,10 @@
       <c r="E377">
         <v>0</v>
       </c>
-      <c r="F377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B378" t="s">
         <v>35</v>
@@ -8170,13 +7036,10 @@
       <c r="E378">
         <v>0</v>
       </c>
-      <c r="F378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B379" t="s">
         <v>35</v>
@@ -8190,13 +7053,10 @@
       <c r="E379">
         <v>0</v>
       </c>
-      <c r="F379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B380" t="s">
         <v>36</v>
@@ -8205,18 +7065,15 @@
         <v>45</v>
       </c>
       <c r="D380">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E380">
-        <v>45</v>
-      </c>
-      <c r="F380">
         <v>39</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B381" t="s">
         <v>36</v>
@@ -8225,18 +7082,15 @@
         <v>46</v>
       </c>
       <c r="D381">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E381">
-        <v>35</v>
-      </c>
-      <c r="F381">
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B382" t="s">
         <v>36</v>
@@ -8248,15 +7102,12 @@
         <v>1</v>
       </c>
       <c r="E382">
-        <v>1</v>
-      </c>
-      <c r="F382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B383" t="s">
         <v>36</v>
@@ -8265,18 +7116,15 @@
         <v>47</v>
       </c>
       <c r="D383">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E383">
-        <v>191</v>
-      </c>
-      <c r="F383">
         <v>205</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B384" t="s">
         <v>36</v>
@@ -8285,18 +7133,15 @@
         <v>44</v>
       </c>
       <c r="D384">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E384">
-        <v>12</v>
-      </c>
-      <c r="F384">
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B385" t="s">
         <v>36</v>
@@ -8308,15 +7153,12 @@
         <v>6</v>
       </c>
       <c r="E385">
-        <v>6</v>
-      </c>
-      <c r="F385">
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B386" t="s">
         <v>36</v>
@@ -8325,18 +7167,15 @@
         <v>48</v>
       </c>
       <c r="D386">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E386">
-        <v>70</v>
-      </c>
-      <c r="F386">
         <v>66</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B387" t="s">
         <v>37</v>
@@ -8345,18 +7184,15 @@
         <v>45</v>
       </c>
       <c r="D387">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E387">
-        <v>119</v>
-      </c>
-      <c r="F387">
         <v>103</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B388" t="s">
         <v>37</v>
@@ -8365,18 +7201,15 @@
         <v>46</v>
       </c>
       <c r="D388">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E388">
-        <v>189</v>
-      </c>
-      <c r="F388">
         <v>317</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B389" t="s">
         <v>37</v>
@@ -8388,15 +7221,12 @@
         <v>1</v>
       </c>
       <c r="E389">
-        <v>1</v>
-      </c>
-      <c r="F389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B390" t="s">
         <v>37</v>
@@ -8405,18 +7235,15 @@
         <v>47</v>
       </c>
       <c r="D390">
-        <v>640</v>
+        <v>513</v>
       </c>
       <c r="E390">
-        <v>513</v>
-      </c>
-      <c r="F390">
         <v>624</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B391" t="s">
         <v>37</v>
@@ -8425,18 +7252,15 @@
         <v>44</v>
       </c>
       <c r="D391">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E391">
-        <v>52</v>
-      </c>
-      <c r="F391">
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B392" t="s">
         <v>37</v>
@@ -8445,18 +7269,15 @@
         <v>49</v>
       </c>
       <c r="D392">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E392">
-        <v>10</v>
-      </c>
-      <c r="F392">
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B393" t="s">
         <v>37</v>
@@ -8465,18 +7286,15 @@
         <v>48</v>
       </c>
       <c r="D393">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E393">
-        <v>181</v>
-      </c>
-      <c r="F393">
         <v>199</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B394" t="s">
         <v>38</v>
@@ -8485,18 +7303,15 @@
         <v>45</v>
       </c>
       <c r="D394">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E394">
-        <v>89</v>
-      </c>
-      <c r="F394">
         <v>74</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B395" t="s">
         <v>38</v>
@@ -8505,18 +7320,15 @@
         <v>46</v>
       </c>
       <c r="D395">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="E395">
-        <v>172</v>
-      </c>
-      <c r="F395">
         <v>249</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B396" t="s">
         <v>38</v>
@@ -8528,15 +7340,12 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
-      </c>
-      <c r="F396">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B397" t="s">
         <v>38</v>
@@ -8545,18 +7354,15 @@
         <v>47</v>
       </c>
       <c r="D397">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="E397">
-        <v>311</v>
-      </c>
-      <c r="F397">
         <v>304</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B398" t="s">
         <v>38</v>
@@ -8565,18 +7371,15 @@
         <v>44</v>
       </c>
       <c r="D398">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E398">
-        <v>33</v>
-      </c>
-      <c r="F398">
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B399" t="s">
         <v>38</v>
@@ -8588,15 +7391,12 @@
         <v>6</v>
       </c>
       <c r="E399">
-        <v>6</v>
-      </c>
-      <c r="F399">
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B400" t="s">
         <v>38</v>
@@ -8605,18 +7405,15 @@
         <v>48</v>
       </c>
       <c r="D400">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="E400">
-        <v>178</v>
-      </c>
-      <c r="F400">
         <v>163</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B401" t="s">
         <v>39</v>
@@ -8625,18 +7422,15 @@
         <v>45</v>
       </c>
       <c r="D401">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E401">
-        <v>27</v>
-      </c>
-      <c r="F401">
         <v>38</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B402" t="s">
         <v>39</v>
@@ -8645,18 +7439,15 @@
         <v>46</v>
       </c>
       <c r="D402">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E402">
-        <v>89</v>
-      </c>
-      <c r="F402">
         <v>138</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B403" t="s">
         <v>39</v>
@@ -8668,15 +7459,12 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>0</v>
-      </c>
-      <c r="F403">
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B404" t="s">
         <v>39</v>
@@ -8685,18 +7473,15 @@
         <v>47</v>
       </c>
       <c r="D404">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E404">
-        <v>139</v>
-      </c>
-      <c r="F404">
         <v>247</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B405" t="s">
         <v>39</v>
@@ -8705,18 +7490,15 @@
         <v>44</v>
       </c>
       <c r="D405">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E405">
-        <v>14</v>
-      </c>
-      <c r="F405">
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B406" t="s">
         <v>39</v>
@@ -8725,18 +7507,15 @@
         <v>49</v>
       </c>
       <c r="D406">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E406">
-        <v>4</v>
-      </c>
-      <c r="F406">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B407" t="s">
         <v>39</v>
@@ -8745,18 +7524,15 @@
         <v>48</v>
       </c>
       <c r="D407">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E407">
-        <v>23</v>
-      </c>
-      <c r="F407">
         <v>39</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B408" t="s">
         <v>0</v>
@@ -8765,18 +7541,15 @@
         <v>45</v>
       </c>
       <c r="D408">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E408">
-        <v>94</v>
-      </c>
-      <c r="F408">
         <v>107</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B409" t="s">
         <v>0</v>
@@ -8785,18 +7558,15 @@
         <v>46</v>
       </c>
       <c r="D409">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E409">
-        <v>86</v>
-      </c>
-      <c r="F409">
         <v>107</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B410" t="s">
         <v>0</v>
@@ -8808,15 +7578,12 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>1</v>
-      </c>
-      <c r="F410">
         <v>-1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B411" t="s">
         <v>0</v>
@@ -8825,18 +7592,15 @@
         <v>47</v>
       </c>
       <c r="D411">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="E411">
-        <v>332</v>
-      </c>
-      <c r="F411">
         <v>338</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B412" t="s">
         <v>0</v>
@@ -8845,18 +7609,15 @@
         <v>44</v>
       </c>
       <c r="D412">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E412">
-        <v>22</v>
-      </c>
-      <c r="F412">
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B413" t="s">
         <v>0</v>
@@ -8865,18 +7626,15 @@
         <v>49</v>
       </c>
       <c r="D413">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E413">
-        <v>12</v>
-      </c>
-      <c r="F413">
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B414" t="s">
         <v>0</v>
@@ -8885,16 +7643,13 @@
         <v>48</v>
       </c>
       <c r="D414">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E414">
-        <v>114</v>
-      </c>
-      <c r="F414">
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>41</v>
       </c>
@@ -8905,16 +7660,13 @@
         <v>45</v>
       </c>
       <c r="D415">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E415">
-        <v>33</v>
-      </c>
-      <c r="F415">
         <v>49</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>41</v>
       </c>
@@ -8925,16 +7677,13 @@
         <v>46</v>
       </c>
       <c r="D416">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="E416">
-        <v>169</v>
-      </c>
-      <c r="F416">
         <v>203</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>41</v>
       </c>
@@ -8948,13 +7697,10 @@
         <v>2</v>
       </c>
       <c r="E417">
-        <v>2</v>
-      </c>
-      <c r="F417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>41</v>
       </c>
@@ -8965,16 +7711,13 @@
         <v>47</v>
       </c>
       <c r="D418">
-        <v>593</v>
+        <v>481</v>
       </c>
       <c r="E418">
-        <v>481</v>
-      </c>
-      <c r="F418">
         <v>513</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>41</v>
       </c>
@@ -8985,16 +7728,13 @@
         <v>44</v>
       </c>
       <c r="D419">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E419">
-        <v>12</v>
-      </c>
-      <c r="F419">
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>41</v>
       </c>
@@ -9005,16 +7745,13 @@
         <v>49</v>
       </c>
       <c r="D420">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E420">
-        <v>4</v>
-      </c>
-      <c r="F420">
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>41</v>
       </c>
@@ -9025,16 +7762,13 @@
         <v>48</v>
       </c>
       <c r="D421">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E421">
-        <v>81</v>
-      </c>
-      <c r="F421">
         <v>76</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -9045,16 +7779,13 @@
         <v>45</v>
       </c>
       <c r="D422">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E422">
-        <v>100</v>
-      </c>
-      <c r="F422">
         <v>104</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>41</v>
       </c>
@@ -9065,16 +7796,13 @@
         <v>46</v>
       </c>
       <c r="D423">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E423">
-        <v>203</v>
-      </c>
-      <c r="F423">
         <v>262</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>41</v>
       </c>
@@ -9088,13 +7816,10 @@
         <v>3</v>
       </c>
       <c r="E424">
-        <v>3</v>
-      </c>
-      <c r="F424">
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>41</v>
       </c>
@@ -9105,16 +7830,13 @@
         <v>47</v>
       </c>
       <c r="D425">
-        <v>728</v>
+        <v>598</v>
       </c>
       <c r="E425">
-        <v>598</v>
-      </c>
-      <c r="F425">
         <v>710</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>41</v>
       </c>
@@ -9125,16 +7847,13 @@
         <v>44</v>
       </c>
       <c r="D426">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E426">
-        <v>25</v>
-      </c>
-      <c r="F426">
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>41</v>
       </c>
@@ -9148,13 +7867,10 @@
         <v>14</v>
       </c>
       <c r="E427">
-        <v>14</v>
-      </c>
-      <c r="F427">
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>41</v>
       </c>
@@ -9165,16 +7881,13 @@
         <v>48</v>
       </c>
       <c r="D428">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E428">
-        <v>139</v>
-      </c>
-      <c r="F428">
         <v>120</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>41</v>
       </c>
@@ -9185,16 +7898,13 @@
         <v>45</v>
       </c>
       <c r="D429">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E429">
-        <v>40</v>
-      </c>
-      <c r="F429">
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>41</v>
       </c>
@@ -9205,16 +7915,13 @@
         <v>46</v>
       </c>
       <c r="D430">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E430">
-        <v>68</v>
-      </c>
-      <c r="F430">
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -9230,11 +7937,8 @@
       <c r="E431">
         <v>0</v>
       </c>
-      <c r="F431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>41</v>
       </c>
@@ -9245,16 +7949,13 @@
         <v>47</v>
       </c>
       <c r="D432">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="E432">
-        <v>248</v>
-      </c>
-      <c r="F432">
         <v>207</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -9268,13 +7969,10 @@
         <v>11</v>
       </c>
       <c r="E433">
-        <v>11</v>
-      </c>
-      <c r="F433">
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -9285,16 +7983,13 @@
         <v>49</v>
       </c>
       <c r="D434">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E434">
-        <v>4</v>
-      </c>
-      <c r="F434">
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>41</v>
       </c>
@@ -9305,16 +8000,13 @@
         <v>48</v>
       </c>
       <c r="D435">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E435">
-        <v>28</v>
-      </c>
-      <c r="F435">
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>42</v>
       </c>
@@ -9328,13 +8020,10 @@
         <v>4</v>
       </c>
       <c r="E436">
-        <v>4</v>
-      </c>
-      <c r="F436">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>42</v>
       </c>
@@ -9348,13 +8037,10 @@
         <v>1</v>
       </c>
       <c r="E437">
-        <v>1</v>
-      </c>
-      <c r="F437">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>42</v>
       </c>
@@ -9368,13 +8054,10 @@
         <v>2</v>
       </c>
       <c r="E438">
-        <v>2</v>
-      </c>
-      <c r="F438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>42</v>
       </c>
@@ -9385,16 +8068,13 @@
         <v>47</v>
       </c>
       <c r="D439">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E439">
-        <v>43</v>
-      </c>
-      <c r="F439">
         <v>122</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>42</v>
       </c>
@@ -9405,16 +8085,13 @@
         <v>44</v>
       </c>
       <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
         <v>2</v>
       </c>
-      <c r="E440">
-        <v>1</v>
-      </c>
-      <c r="F440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>42</v>
       </c>
@@ -9428,13 +8105,10 @@
         <v>0</v>
       </c>
       <c r="E441">
-        <v>0</v>
-      </c>
-      <c r="F441">
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>42</v>
       </c>
@@ -9448,13 +8122,10 @@
         <v>1</v>
       </c>
       <c r="E442">
-        <v>1</v>
-      </c>
-      <c r="F442">
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -9465,16 +8136,13 @@
         <v>45</v>
       </c>
       <c r="D443">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E443">
-        <v>121</v>
-      </c>
-      <c r="F443">
         <v>156</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -9485,16 +8153,13 @@
         <v>46</v>
       </c>
       <c r="D444">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="E444">
-        <v>261</v>
-      </c>
-      <c r="F444">
         <v>274</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>42</v>
       </c>
@@ -9508,13 +8173,10 @@
         <v>2</v>
       </c>
       <c r="E445">
-        <v>2</v>
-      </c>
-      <c r="F445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>42</v>
       </c>
@@ -9525,16 +8187,13 @@
         <v>47</v>
       </c>
       <c r="D446">
-        <v>967</v>
+        <v>727</v>
       </c>
       <c r="E446">
-        <v>727</v>
-      </c>
-      <c r="F446">
         <v>1525</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>42</v>
       </c>
@@ -9545,16 +8204,13 @@
         <v>44</v>
       </c>
       <c r="D447">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E447">
-        <v>82</v>
-      </c>
-      <c r="F447">
         <v>108</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -9565,16 +8221,13 @@
         <v>49</v>
       </c>
       <c r="D448">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E448">
-        <v>23</v>
-      </c>
-      <c r="F448">
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>42</v>
       </c>
@@ -9585,12 +8238,9 @@
         <v>48</v>
       </c>
       <c r="D449">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E449">
-        <v>128</v>
-      </c>
-      <c r="F449">
         <v>151</v>
       </c>
     </row>
